--- a/Chinook 2.0/CDL_limit.xlsx
+++ b/Chinook 2.0/CDL_limit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mantaj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mantaj\Documents\Chinook 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EA4537-E03B-424C-8794-A18BB2276640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83A6F4D-EC91-4439-870B-4F33267D9076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
   <si>
     <t>name</t>
   </si>
@@ -190,12 +190,6 @@
     <t>CDLTotalEngineIdleTime</t>
   </si>
   <si>
-    <t>CDLTotalFuelConsumed</t>
-  </si>
-  <si>
-    <t>CDLTotalLoadCycles</t>
-  </si>
-  <si>
     <t>CDLTotalLoadedDistance</t>
   </si>
   <si>
@@ -269,12 +263,6 @@
   </si>
   <si>
     <t>Hours</t>
-  </si>
-  <si>
-    <t>Liters</t>
-  </si>
-  <si>
-    <t>Cycles</t>
   </si>
   <si>
     <t>km</t>
@@ -651,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,7 +678,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -704,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -718,7 +706,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -732,7 +720,7 @@
         <v>110</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -746,7 +734,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -760,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -774,7 +762,7 @@
         <v>300</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -788,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -799,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -816,7 +804,7 @@
         <v>2200</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -830,7 +818,7 @@
         <v>125</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -844,7 +832,7 @@
         <v>100</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -858,7 +846,7 @@
         <v>500</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -872,7 +860,7 @@
         <v>1000</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -886,7 +874,7 @@
         <v>150</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -900,7 +888,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -914,7 +902,7 @@
         <v>2400</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -928,7 +916,7 @@
         <v>500</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -942,7 +930,7 @@
         <v>100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -956,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -970,7 +958,7 @@
         <v>100</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -984,7 +972,7 @@
         <v>500</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -998,7 +986,7 @@
         <v>100</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1012,7 +1000,7 @@
         <v>110</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1026,7 +1014,7 @@
         <v>110</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1040,7 +1028,7 @@
         <v>110</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1054,7 +1042,7 @@
         <v>85</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1068,7 +1056,7 @@
         <v>900</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1082,7 +1070,7 @@
         <v>700</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1096,7 +1084,7 @@
         <v>120</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1110,7 +1098,7 @@
         <v>120</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1118,13 +1106,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="C33" s="2">
-        <v>1500</v>
+        <v>30000</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1138,7 +1126,7 @@
         <v>120</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1146,13 +1134,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="C35" s="2">
-        <v>1500</v>
+        <v>30000</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1166,7 +1154,7 @@
         <v>300</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1180,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1194,7 +1182,7 @@
         <v>100</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1208,7 +1196,7 @@
         <v>100</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1222,7 +1210,7 @@
         <v>900</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1236,7 +1224,7 @@
         <v>700</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1250,7 +1238,7 @@
         <v>120</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1264,7 +1252,7 @@
         <v>120</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1272,13 +1260,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="C44" s="2">
-        <v>1500</v>
+        <v>30000</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1292,7 +1280,7 @@
         <v>120</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1300,13 +1288,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="C46" s="2">
-        <v>1500</v>
+        <v>30000</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1320,7 +1308,7 @@
         <v>300</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1334,7 +1322,7 @@
         <v>100</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1348,7 +1336,7 @@
         <v>120</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1362,7 +1350,7 @@
         <v>500</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1376,7 +1364,7 @@
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1390,7 +1378,7 @@
         <v>100</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1404,7 +1392,7 @@
         <v>10000</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1415,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="C54" s="2">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1429,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="C55" s="2">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1443,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="C56" s="2">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1454,13 +1442,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C57" s="2">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1468,13 +1456,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="2">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="C58" s="2">
-        <v>50000</v>
+        <v>150</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1482,13 +1470,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C59" s="2">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1496,13 +1484,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="C60" s="2">
-        <v>150</v>
+        <v>100000</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1510,13 +1498,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C61" s="2">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1524,13 +1512,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C62" s="2">
-        <v>100000</v>
+        <v>300</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1544,7 +1532,7 @@
         <v>300</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1558,7 +1546,7 @@
         <v>300</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1569,10 +1557,10 @@
         <v>90</v>
       </c>
       <c r="C65" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1580,41 +1568,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C66" s="2">
-        <v>300</v>
+        <v>1000000</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="2">
-        <v>90</v>
-      </c>
-      <c r="C67" s="2">
-        <v>500</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="2">
-        <v>0</v>
-      </c>
-      <c r="C68" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Chinook 2.0/CDL_limit.xlsx
+++ b/Chinook 2.0/CDL_limit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mantaj\Documents\Chinook 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83A6F4D-EC91-4439-870B-4F33267D9076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDCE4CB-25DD-402C-A76D-0A97D96E1BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5145" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -100,9 +100,6 @@
     <t>CDLFuelTransferPumpIntakePressure</t>
   </si>
   <si>
-    <t>cdlgroundspeed</t>
-  </si>
-  <si>
     <t>CDLHydraulicOilTemp</t>
   </si>
   <si>
@@ -269,6 +266,12 @@
   </si>
   <si>
     <t>kg</t>
+  </si>
+  <si>
+    <t>CDLGroundSpeed</t>
+  </si>
+  <si>
+    <t>psi</t>
   </si>
 </sst>
 </file>
@@ -641,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,7 +681,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -692,7 +695,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -706,7 +709,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -714,13 +717,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>110</v>
+        <v>4750</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -734,7 +737,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -748,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -762,7 +765,7 @@
         <v>300</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -773,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -790,7 +793,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -804,7 +807,7 @@
         <v>2200</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -818,7 +821,7 @@
         <v>125</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -832,7 +835,7 @@
         <v>100</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -843,10 +846,10 @@
         <v>70</v>
       </c>
       <c r="C14" s="2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -860,7 +863,7 @@
         <v>1000</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -874,7 +877,7 @@
         <v>150</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -888,7 +891,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -902,7 +905,7 @@
         <v>2400</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -916,7 +919,7 @@
         <v>500</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -927,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -944,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -958,7 +961,7 @@
         <v>100</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -972,12 +975,12 @@
         <v>500</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -986,12 +989,12 @@
         <v>100</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2">
         <v>-40</v>
@@ -1000,12 +1003,12 @@
         <v>110</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2">
         <v>90</v>
@@ -1014,12 +1017,12 @@
         <v>110</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2">
         <v>90</v>
@@ -1028,12 +1031,12 @@
         <v>110</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2">
         <v>-40</v>
@@ -1042,12 +1045,12 @@
         <v>85</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2">
         <v>300</v>
@@ -1056,12 +1059,12 @@
         <v>900</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2">
         <v>200</v>
@@ -1070,12 +1073,12 @@
         <v>700</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2">
         <v>-40</v>
@@ -1084,12 +1087,12 @@
         <v>120</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2">
         <v>-40</v>
@@ -1098,12 +1101,12 @@
         <v>120</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -1112,12 +1115,12 @@
         <v>30000</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2">
         <v>-40</v>
@@ -1126,12 +1129,12 @@
         <v>120</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -1140,12 +1143,12 @@
         <v>30000</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2">
         <v>90</v>
@@ -1154,12 +1157,12 @@
         <v>300</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -1168,12 +1171,12 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -1182,12 +1185,12 @@
         <v>100</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -1196,12 +1199,12 @@
         <v>100</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2">
         <v>300</v>
@@ -1210,12 +1213,12 @@
         <v>900</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2">
         <v>200</v>
@@ -1224,12 +1227,12 @@
         <v>700</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2">
         <v>-40</v>
@@ -1238,12 +1241,12 @@
         <v>120</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2">
         <v>-40</v>
@@ -1252,12 +1255,12 @@
         <v>120</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -1266,12 +1269,12 @@
         <v>30000</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2">
         <v>-40</v>
@@ -1280,12 +1283,12 @@
         <v>120</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -1294,12 +1297,12 @@
         <v>30000</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2">
         <v>90</v>
@@ -1308,12 +1311,12 @@
         <v>300</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -1322,12 +1325,12 @@
         <v>100</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="2">
         <v>-40</v>
@@ -1336,26 +1339,26 @@
         <v>120</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2">
         <v>100</v>
       </c>
       <c r="C50" s="2">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="2">
         <v>11</v>
@@ -1364,12 +1367,12 @@
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -1378,12 +1381,12 @@
         <v>100</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" s="2">
         <v>0</v>
@@ -1392,12 +1395,12 @@
         <v>10000</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
@@ -1406,12 +1409,12 @@
         <v>1000000</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -1420,12 +1423,12 @@
         <v>50000</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -1434,26 +1437,26 @@
         <v>50000</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C57" s="2">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="2">
         <v>-40</v>
@@ -1462,12 +1465,12 @@
         <v>150</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="2">
         <v>0</v>
@@ -1476,12 +1479,12 @@
         <v>3000</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="2">
         <v>0</v>
@@ -1490,12 +1493,12 @@
         <v>100000</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2">
         <v>90</v>
@@ -1504,12 +1507,12 @@
         <v>300</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="2">
         <v>90</v>
@@ -1518,26 +1521,26 @@
         <v>300</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="2">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C63" s="2">
         <v>300</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="2">
         <v>90</v>
@@ -1546,12 +1549,12 @@
         <v>300</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="2">
         <v>90</v>
@@ -1560,12 +1563,12 @@
         <v>500</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="2">
         <v>0</v>
@@ -1574,7 +1577,7 @@
         <v>1000000</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Chinook 2.0/CDL_limit.xlsx
+++ b/Chinook 2.0/CDL_limit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mantaj\Documents\Chinook 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDCE4CB-25DD-402C-A76D-0A97D96E1BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5713B9AE-4F11-43A5-B2EA-0CADD4F61678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-5145" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -645,7 +645,7 @@
   <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,10 +801,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="C11" s="2">
-        <v>2200</v>
+        <v>5000</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>74</v>
@@ -1557,7 +1557,7 @@
         <v>66</v>
       </c>
       <c r="B65" s="2">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="C65" s="2">
         <v>500</v>
